--- a/Casos de Testes - ProvaPart2.xlsx
+++ b/Casos de Testes - ProvaPart2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4605" tabRatio="592" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4605" tabRatio="592" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ins" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="greater" sheetId="5" r:id="rId5"/>
     <sheet name="lower" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>Restrições (se houver)</t>
   </si>
@@ -54,13 +54,49 @@
   </si>
   <si>
     <t>Entrada (indice da lista)</t>
+  </si>
+  <si>
+    <t>lista vazia</t>
+  </si>
+  <si>
+    <t>lista cheia</t>
+  </si>
+  <si>
+    <t>Lista Vazia</t>
+  </si>
+  <si>
+    <t>0,2,4,6,8,10,12,14</t>
+  </si>
+  <si>
+    <t>0,5,10,15,20,25,30,35</t>
+  </si>
+  <si>
+    <t>20,0,2,4</t>
+  </si>
+  <si>
+    <t>0,2,4,40</t>
+  </si>
+  <si>
+    <t>2,3,6,50,2,4,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não Inseriu </t>
+  </si>
+  <si>
+    <t>1,2,4,6,8</t>
+  </si>
+  <si>
+    <t>2,4,6,8,1</t>
+  </si>
+  <si>
+    <t>2,4,6,8,1,2,4,6,8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -71,16 +107,41 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Bahnschrift SemiBold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Bahnschrift SemiBold"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -88,13 +149,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -105,6 +219,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -390,7 +522,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -402,150 +534,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="b">
+      <c r="D2" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>-5</v>
       </c>
-      <c r="B3" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="b">
+      <c r="D3" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5" t="b">
+      <c r="D4" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="b">
+      <c r="B5" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="b">
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -556,163 +690,180 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="A2" s="9">
+        <v>3</v>
+      </c>
+      <c r="B2" s="9">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="A3" s="9">
+        <v>3</v>
+      </c>
+      <c r="B3" s="9">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="9">
+        <v>-1</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -723,15 +874,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>7</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -740,30 +988,189 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="D1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>5</v>
+      </c>
+      <c r="B3" s="9">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="9">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="9">
+        <v>17.5</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9">
+        <v>17.5</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -772,27 +1179,166 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="D1" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="9">
+        <v>20</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="9">
+        <v>40</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="9">
+        <v>50</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -801,27 +1347,160 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="D1" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>20</v>
+      </c>
+      <c r="B6" s="9">
+        <v>20</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
